--- a/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
+++ b/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="frontend" sheetId="1" r:id="rId1"/>
@@ -1577,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
+++ b/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <r>
       <t>·</t>
@@ -1135,6 +1135,159 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CU 1: Registrar Mascota Perdida </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>CU 2: Registrar Mascota Encontrada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>CU 11: Registrar Reclamo de Mascota</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>CU 12: Registrar Reencuentro de Mascota</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>CU 6: Registrar Usuario</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>CU 5: Registrar Datos de Animal</t>
+    </r>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1731,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1600,6 +1753,9 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="3" t="s">
@@ -1680,7 +1836,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75">
@@ -1733,7 +1889,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="6" customFormat="1" ht="15.75">
@@ -1741,7 +1897,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" ht="15.75">
@@ -1749,7 +1905,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" ht="15.75">
@@ -1757,7 +1913,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" ht="15.75">
@@ -1765,7 +1921,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" ht="15.75">
@@ -1773,7 +1929,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75">
@@ -1797,7 +1953,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="6" customFormat="1" ht="15.75">
@@ -1805,7 +1961,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1818,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1827,80 +1983,98 @@
     <col min="1" max="1" width="68.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="7" customFormat="1" ht="18.75">
+    <row r="1" spans="1:2" s="7" customFormat="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="7" customFormat="1" ht="18.75">
+    <row r="2" spans="1:2" s="7" customFormat="1" ht="18.75">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="7" customFormat="1" ht="15.75">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="7" customFormat="1" ht="15.75">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="7" customFormat="1" ht="15.75">
+    <row r="3" spans="1:2" s="6" customFormat="1" ht="15.75">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="6" customFormat="1" ht="15.75">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="7" customFormat="1" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="7" customFormat="1" ht="15.75">
+    <row r="6" spans="1:2" s="7" customFormat="1" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="7" customFormat="1" ht="15.75">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="7" customFormat="1" ht="15.75">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" s="7" customFormat="1" ht="15.75">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" s="7" customFormat="1" ht="15.75">
+    <row r="7" spans="1:2" s="6" customFormat="1" ht="15.75">
+      <c r="A7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="6" customFormat="1" ht="15.75">
+      <c r="A8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="6" customFormat="1" ht="15.75">
+      <c r="A9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="7" customFormat="1" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" s="7" customFormat="1" ht="15.75">
+    <row r="11" spans="1:2" s="7" customFormat="1" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="7" customFormat="1" ht="18.75">
+    <row r="12" spans="1:2" s="7" customFormat="1" ht="18.75">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="7" customFormat="1" ht="15.75">
+    <row r="13" spans="1:2" s="7" customFormat="1" ht="15.75">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:1" s="7" customFormat="1" ht="18.75">
+    <row r="14" spans="1:2" s="7" customFormat="1" ht="18.75">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" s="7" customFormat="1" ht="15.75">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" s="7" customFormat="1" ht="15.75">
+    <row r="15" spans="1:2" s="6" customFormat="1" ht="15.75">
+      <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="7" customFormat="1" ht="15.75">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>

--- a/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
+++ b/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="frontend" sheetId="1" r:id="rId1"/>
     <sheet name="backend" sheetId="4" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1728,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1823,7 +1821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75">
+    <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1831,7 +1829,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="6" customFormat="1" ht="15.75">
+    <row r="18" spans="1:2" s="6" customFormat="1" ht="15.75">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1839,52 +1837,39 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="18.75">
+    <row r="20" spans="1:2" ht="18.75">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="4"/>
-      <c r="F21">
-        <v>700</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75">
+    </row>
+    <row r="22" spans="1:2" ht="18.75">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22">
-        <f>G22*F21/G21</f>
-        <v>3500</v>
-      </c>
-      <c r="G22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75">
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="18.75">
+    <row r="24" spans="1:2" ht="18.75">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:2" ht="15.75">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="18.75">
+    <row r="26" spans="1:2" ht="18.75">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="6" customFormat="1" ht="15.75">
+    <row r="27" spans="1:2" s="6" customFormat="1" ht="15.75">
       <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
@@ -1892,7 +1877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="6" customFormat="1" ht="15.75">
+    <row r="28" spans="1:2" s="6" customFormat="1" ht="15.75">
       <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
@@ -1900,7 +1885,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="6" customFormat="1" ht="15.75">
+    <row r="29" spans="1:2" s="6" customFormat="1" ht="15.75">
       <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
@@ -1908,7 +1893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" ht="15.75">
+    <row r="30" spans="1:2" s="6" customFormat="1" ht="15.75">
       <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
@@ -1916,7 +1901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="6" customFormat="1" ht="15.75">
+    <row r="31" spans="1:2" s="6" customFormat="1" ht="15.75">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
@@ -1924,7 +1909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="6" customFormat="1" ht="15.75">
+    <row r="32" spans="1:2" s="6" customFormat="1" ht="15.75">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
@@ -2215,30 +2200,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
+++ b/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <r>
       <t>·</t>
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1759,10 +1759,16 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75">
@@ -1959,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
+++ b/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <r>
       <t>·</t>
@@ -1729,7 +1729,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1780,6 +1780,9 @@
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="3" t="s">
@@ -1795,10 +1798,16 @@
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75">

--- a/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
+++ b/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <r>
       <t>·</t>
@@ -1729,7 +1729,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1792,6 +1792,9 @@
     <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75">

--- a/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
+++ b/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <r>
       <t>·</t>
@@ -1729,7 +1729,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1787,6 +1787,9 @@
     <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75">

--- a/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
+++ b/Producto Salud Mascotas/003-Definición del sistema de información/trash.diseño_grafico_checklist.xlsx
@@ -1729,7 +1729,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
